--- a/experimental_results/sequential_NW.xlsx
+++ b/experimental_results/sequential_NW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26CFE91-4AA7-46C1-BF90-3E141897C68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F313C-5E3C-4B94-BA84-C60A4CAD7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{111DCF4D-529D-452B-9487-9B52E946AE84}"/>
+    <workbookView minimized="1" xWindow="-21252" yWindow="1308" windowWidth="21624" windowHeight="11304" xr2:uid="{111DCF4D-529D-452B-9487-9B52E946AE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t>itc99-poli</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>876527</t>
+  </si>
+  <si>
+    <t>TO</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="B17:D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1302,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1316,7 +1321,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
